--- a/氣象性能評估工具V2/data/obs/backup/2016-06-21_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-21_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-21 00:00:00</t>
+    <t>2016-06-21-00</t>
   </si>
   <si>
     <t>22.6</t>
@@ -151,7 +151,7 @@
     <t>27.3</t>
   </si>
   <si>
-    <t>2016-06-21 01:00:00</t>
+    <t>2016-06-21-01</t>
   </si>
   <si>
     <t>22.7</t>
@@ -199,7 +199,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-21 02:00:00</t>
+    <t>2016-06-21-02</t>
   </si>
   <si>
     <t>22.4</t>
@@ -235,7 +235,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-21 03:00:00</t>
+    <t>2016-06-21-03</t>
   </si>
   <si>
     <t>22.1</t>
@@ -250,7 +250,7 @@
     <t>24.4</t>
   </si>
   <si>
-    <t>2016-06-21 04:00:00</t>
+    <t>2016-06-21-04</t>
   </si>
   <si>
     <t>23.2</t>
@@ -271,7 +271,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-21 05:00:00</t>
+    <t>2016-06-21-05</t>
   </si>
   <si>
     <t>22.2</t>
@@ -292,7 +292,7 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>2016-06-21 06:00:00</t>
+    <t>2016-06-21-06</t>
   </si>
   <si>
     <t>22.9</t>
@@ -328,7 +328,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-21 07:00:00</t>
+    <t>2016-06-21-07</t>
   </si>
   <si>
     <t>24.5</t>
@@ -373,7 +373,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-21 08:00:00</t>
+    <t>2016-06-21-08</t>
   </si>
   <si>
     <t>31.1</t>
@@ -415,7 +415,7 @@
     <t>31.5</t>
   </si>
   <si>
-    <t>2016-06-21 09:00:00</t>
+    <t>2016-06-21-09</t>
   </si>
   <si>
     <t>32.5</t>
@@ -451,7 +451,7 @@
     <t>32.7</t>
   </si>
   <si>
-    <t>2016-06-21 10:00:00</t>
+    <t>2016-06-21-10</t>
   </si>
   <si>
     <t>34.7</t>
@@ -478,7 +478,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-21 11:00:00</t>
+    <t>2016-06-21-11</t>
   </si>
   <si>
     <t>33.5</t>
@@ -499,7 +499,7 @@
     <t>32.1</t>
   </si>
   <si>
-    <t>2016-06-21 12:00:00</t>
+    <t>2016-06-21-12</t>
   </si>
   <si>
     <t>35.2</t>
@@ -517,7 +517,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-21 13:00:00</t>
+    <t>2016-06-21-13</t>
   </si>
   <si>
     <t>24.2</t>
@@ -547,7 +547,7 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>2016-06-21 14:00:00</t>
+    <t>2016-06-21-14</t>
   </si>
   <si>
     <t>34.6</t>
@@ -559,7 +559,7 @@
     <t>8.3</t>
   </si>
   <si>
-    <t>2016-06-21 15:00:00</t>
+    <t>2016-06-21-15</t>
   </si>
   <si>
     <t>15.4</t>
@@ -571,7 +571,7 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>2016-06-21 16:00:00</t>
+    <t>2016-06-21-16</t>
   </si>
   <si>
     <t>21.4</t>
@@ -583,7 +583,7 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>2016-06-21 17:00:00</t>
+    <t>2016-06-21-17</t>
   </si>
   <si>
     <t>23.8</t>
@@ -604,7 +604,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-21 18:00:00</t>
+    <t>2016-06-21-18</t>
   </si>
   <si>
     <t>28.0</t>
@@ -613,7 +613,7 @@
     <t>13.2</t>
   </si>
   <si>
-    <t>2016-06-21 19:00:00</t>
+    <t>2016-06-21-19</t>
   </si>
   <si>
     <t>21.7</t>
@@ -628,7 +628,7 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>2016-06-21 20:00:00</t>
+    <t>2016-06-21-20</t>
   </si>
   <si>
     <t>22.3</t>
@@ -637,7 +637,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-21 21:00:00</t>
+    <t>2016-06-21-21</t>
   </si>
   <si>
     <t>13.9</t>
@@ -646,7 +646,7 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-21 22:00:00</t>
+    <t>2016-06-21-22</t>
   </si>
   <si>
     <t>21.1</t>
@@ -658,7 +658,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-21 23:00:00</t>
+    <t>2016-06-21-23</t>
   </si>
   <si>
     <t>21.0</t>
